--- a/filehandling/student_details.xlsx
+++ b/filehandling/student_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,170 +441,136 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fr3</t>
+          <t xml:space="preserve">vinaya </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fr3</t>
+          <t xml:space="preserve">vinaya </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fr3</t>
+          <t xml:space="preserve">vinaya </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fr3</t>
+          <t xml:space="preserve">vinaya </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fr3</t>
+          <t xml:space="preserve">vinaya </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fr3</t>
+          <t xml:space="preserve">vinaya </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fr3</t>
+          <t xml:space="preserve">vinaya </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fr3</t>
+          <t xml:space="preserve">vinaya </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>fr3</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>fr3</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>d</t>
+          <t>a</t>
         </is>
       </c>
     </row>
